--- a/Unknown_Platypus/Table/MonsterTable.xlsx
+++ b/Unknown_Platypus/Table/MonsterTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\Unknown\platypus\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E59B08-2990-412C-8132-86610373D2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,15 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -157,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,22 +380,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,12 +674,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -698,7 +687,7 @@
     <col min="1" max="1" width="13.375" style="9"/>
     <col min="2" max="3" width="13.375" style="10"/>
     <col min="4" max="4" width="11.5" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="13.375" style="11"/>
+    <col min="5" max="16384" width="13.375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -717,98 +706,89 @@
       <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>10001</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="10">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>1.5</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>10002</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="10">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>2.5</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D340">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D340">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -819,7 +799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -934,7 +914,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -945,13 +925,13 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Unknown_Platypus/Table/MonsterTable.xlsx
+++ b/Unknown_Platypus/Table/MonsterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E59B08-2990-412C-8132-86610373D2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984153A8-2566-4F5D-A1AB-B3F472176E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,168 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>김태우</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{AD6013E8-17D2-4C80-9BEE-D68EF55C3F46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값
+캐릭터의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +303,10 @@
   </si>
   <si>
     <t>slime02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +345,34 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -674,12 +866,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -690,7 +882,7 @@
     <col min="5" max="16384" width="13.375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -722,13 +914,16 @@
         <v>25</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>10001</v>
       </c>
@@ -756,8 +951,11 @@
       <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>10002</v>
       </c>
@@ -784,6 +982,9 @@
       </c>
       <c r="J3" s="9" t="s">
         <v>33</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -795,6 +996,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
